--- a/CentralizedConfigData/Proxy.xlsx
+++ b/CentralizedConfigData/Proxy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\HostMonitor\ConfigData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\HostMonitor\CentralizedConfigData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A8F205-CB8D-4DA2-94A9-3AEA6A307D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585AD1C-4D9F-4A1D-B3D3-FD78BC70C33C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>proxyId</t>
   </si>
@@ -32,6 +32,10 @@
   </si>
   <si>
     <t>222.20.95.235</t>
+  </si>
+  <si>
+    <t>222.20.95.236</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -458,6 +462,17 @@
         <v>9001</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>9001</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
